--- a/biology/Mycologie/Pholiote_remarquable/Pholiote_remarquable.xlsx
+++ b/biology/Mycologie/Pholiote_remarquable/Pholiote_remarquable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnopilus junonius
 Gymnopilus junonius, de son nom vernaculaire en français le Gymnopile remarquable, encore souvent nommé Pholiote remarquable, est un champignon basidiomycète non comestible de la famille des Strophariaceae.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Gymnopilus junonius (Fries) P.D. Orton 1960[1]
-Synonymes
-Agaricus aureus
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnopilus junonius (Fries) P.D. Orton 1960
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pholiote_remarquable</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pholiote_remarquable</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus aureus
 Agaricus junonius Fr. 1821
 Gymnopilus spectabilis
 Gymnopilus spectabilis var. junonius (Fr.) Kühner &amp; Romagn. 1953
@@ -528,31 +580,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Pholiote_remarquable</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pholiote_remarquable</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hyménophore, (chapeau) est de 5 à 15 cm, convexe puis étalé, mamelonné jeune, jaune orangé très vif, fibrilleux.
@@ -563,37 +617,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pholiote_remarquable</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pholiote_remarquable</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Sporée</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa sporée est rouille.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -615,12 +638,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse en été et en automne, cespiteux, à la base des feuillus, notamment des chênes.
+          <t>Sporée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa sporée est rouille.
 </t>
         </is>
       </c>
@@ -646,12 +671,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Espèces proches</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce gymnopile peut se confondre avec plusieurs pholiotes. Quand on l'a vu une fois, on le reconnaît notamment à sa prestance.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse en été et en automne, cespiteux, à la base des feuillus, notamment des chênes.
 </t>
         </is>
       </c>
@@ -677,10 +704,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Espèces proches</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce gymnopile peut se confondre avec plusieurs pholiotes. Quand on l'a vu une fois, on le reconnaît notamment à sa prestance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pholiote_remarquable</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pholiote_remarquable</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarquable par sa grande taille et sa couleur vive, c'est un champignon vénéneux et hallucinogène pouvant causer des intoxications graves.
 </t>
